--- a/release/figures/SBharadwaj_20240318_Sample_3_6_full_cca.cluster.0.5_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_full_cca.cluster.0.5_gene_ranking.xlsx
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ccl6</t>
+          <t>Gm26728</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Ccl6</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>H2-Aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>A530088E08Rik</t>
+          <t>Gm2245</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Ccl3</t>
+          <t>Ccl6</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Gm2245</t>
+          <t>A530088E08Rik</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Ccl6</t>
+          <t>Ccl3</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3110021N24Rik</t>
+          <t>Lair1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Gm16337</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Lair1</t>
+          <t>Gm20481</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Lair1</t>
+          <t>Apol7d</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gm16337</t>
+          <t>A530088E08Rik</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Gm20481</t>
+          <t>3110021N24Rik</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3051,14 +3051,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>Lair1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>Apol7d</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Apol7d</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>Ccl3</t>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>A530088E08Rik</t>
+          <t>Gm44710</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gm11131</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Gm11131</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Gm16337</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Syne1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Gm16337</t>
+          <t>Gm26728</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Syne1</t>
+          <t>Il18rap</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Il18rap</t>
+          <t>Gm28417</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">

--- a/release/figures/SBharadwaj_20240318_Sample_3_6_full_cca.cluster.0.5_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_full_cca.cluster.0.5_gene_ranking.xlsx
@@ -1156,7 +1156,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Ccl6</t>
+          <t>Ccl3</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Ccl3</t>
+          <t>Ccl6</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Ccl6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Zcwpw1</t>
+          <t>Ccl3</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Fn1</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ccl6</t>
+          <t>Gm26728</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Ccl3</t>
+          <t>Zcwpw1</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Fn1</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>H2-Aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Gm2245</t>
+          <t>A530088E08Rik</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>A530088E08Rik</t>
+          <t>Gm2245</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Gm37401</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Gm37401</t>
+          <t>A530088E08Rik</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Ccl3</t>
+          <t>3110021N24Rik</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Lair1</t>
+          <t>3110021N24Rik</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2801,14 +2801,14 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>Gm44710</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>Gm16337</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>F13a1</t>
-        </is>
-      </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>Fn1</t>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>A530088E08Rik</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Hgf</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>3110021N24Rik</t>
+          <t>Ccl3</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2906,77 +2906,77 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>Lair1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>Gm20481</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Apol7d</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Il1b</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Ccl3</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>A530088E08Rik</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>F13a1</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Gm11175</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Neat1</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Tsix</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>Gm20481</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Apol7d</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Il1b</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Cd74</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Lair1</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>Ccl3</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>A530088E08Rik</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Gm16337</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Gm11175</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Neat1</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Tsix</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>Gm20481</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Lair1</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Ccl3</t>
-        </is>
-      </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Hgf</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3110021N24Rik</t>
+          <t>Gm20481</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Gm16337</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3546,92 +3546,92 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Gm11131</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tsix</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Il18rap</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ripor2</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>F13a1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>A530088E08Rik</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Zcwpw1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Ikzf3</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Ikzf3</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Syne1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Syne1</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>H2-Aa</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>H2-Eb1</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Tsix</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Cd74</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Il18rap</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Ripor2</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>F13a1</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>A530088E08Rik</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Zcwpw1</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Gm20481</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>3110021N24Rik</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>Ikzf3</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Ikzf3</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Syne1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Syne1</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>H2-Aa</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>H2-Eb1</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Gm20481</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>3110021N24Rik</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Ikzf3</t>
-        </is>
-      </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Gm20481</t>
+          <t>Ccl6</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Gm11131</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Ccl6</t>
+          <t>Gm20481</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Gm16337</t>
+          <t>Gm26728</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Gm16337</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Il18rap</t>
+          <t>Gm28417</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Il18rap</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
